--- a/西湖ffffffang.xlsx
+++ b/西湖ffffffang.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C802530-D513-48EB-AC9B-764010A379DA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,210 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝嘉誉府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形好,有噪音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城·西溪云庐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科融信·西雅图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国铁建·西湖国际城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高层考虑,洋房买不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿都·云和湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中旅·紫金名门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉泉二期·香樟洋房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融信·杭州公馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖·水晶郦城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江·西溪明珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科坤和·玉泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融创·河滨之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首开·国风美域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协安·紫郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖·唐宁ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科·西庐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和家园求是里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城·西溪诚园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江·紫金府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复地·黄龙和山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金地自在城栖霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海·西溪华府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富越香溪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十方别墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金地自在城求学里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文溪鼎园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坤和·西溪里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅戈尔·西溪晴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广宇·西城美墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅戈尔·御西湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海紫藤苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和润园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西溪蝶园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金都·城市芯宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣邦·水岸莲花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协安·上郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富越香墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海金溪园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +246,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +530,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>